--- a/scrum.xlsx
+++ b/scrum.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="154">
   <si>
     <t>Product Name:</t>
   </si>
@@ -486,6 +486,12 @@
   </si>
   <si>
     <t>MKM</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Doing</t>
   </si>
 </sst>
 </file>
@@ -805,11 +811,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2110184704"/>
-        <c:axId val="-2138141152"/>
+        <c:axId val="-2087932224"/>
+        <c:axId val="-2085430864"/>
       </c:lineChart>
       <c:valAx>
-        <c:axId val="-2138141152"/>
+        <c:axId val="-2085430864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -864,12 +870,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2110184704"/>
+        <c:crossAx val="-2087932224"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2110184704"/>
+        <c:axId val="-2087932224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -914,7 +920,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2138141152"/>
+        <c:crossAx val="-2085430864"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1036,11 +1042,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2110138400"/>
-        <c:axId val="-2110143840"/>
+        <c:axId val="-2087901168"/>
+        <c:axId val="-2087906608"/>
       </c:lineChart>
       <c:valAx>
-        <c:axId val="-2110143840"/>
+        <c:axId val="-2087906608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1094,12 +1100,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2110138400"/>
+        <c:crossAx val="-2087901168"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2110138400"/>
+        <c:axId val="-2087901168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1143,7 +1149,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2110143840"/>
+        <c:crossAx val="-2087906608"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1187,7 +1193,7 @@
         <xdr:cNvPr id="2" name="shape">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C637F20-993F-4A1B-9D7E-93818E17A099}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C637F20-993F-4A1B-9D7E-93818E17A099}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1218,7 +1224,7 @@
         <xdr:cNvPr id="2" name="shape">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8642ABB4-1175-45A9-98A9-708ACDE14362}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8642ABB4-1175-45A9-98A9-708ACDE14362}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1538,8 +1544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2040,6 +2046,12 @@
       <c r="B34">
         <v>1</v>
       </c>
+      <c r="C34" t="s">
+        <v>152</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
       <c r="E34" s="11">
         <v>1</v>
       </c>
@@ -2060,6 +2072,9 @@
       <c r="B35" s="13">
         <v>2</v>
       </c>
+      <c r="C35" s="13" t="s">
+        <v>153</v>
+      </c>
       <c r="E35" s="14">
         <v>1</v>
       </c>
@@ -2080,6 +2095,9 @@
       <c r="B36">
         <v>3</v>
       </c>
+      <c r="C36" t="s">
+        <v>153</v>
+      </c>
       <c r="E36" s="11">
         <v>1</v>
       </c>
@@ -2100,6 +2118,9 @@
       <c r="B37" s="13">
         <v>4</v>
       </c>
+      <c r="C37" s="13" t="s">
+        <v>153</v>
+      </c>
       <c r="E37" s="14">
         <v>1</v>
       </c>
@@ -2120,6 +2141,9 @@
       <c r="B38">
         <v>5</v>
       </c>
+      <c r="C38" t="s">
+        <v>153</v>
+      </c>
       <c r="E38" s="11">
         <v>1</v>
       </c>
@@ -2140,6 +2164,9 @@
       <c r="B39" s="13">
         <v>6</v>
       </c>
+      <c r="C39" s="13" t="s">
+        <v>153</v>
+      </c>
       <c r="E39" s="14">
         <v>1</v>
       </c>
@@ -2160,6 +2187,9 @@
       <c r="B40">
         <v>7</v>
       </c>
+      <c r="C40" t="s">
+        <v>153</v>
+      </c>
       <c r="E40" s="11">
         <v>1</v>
       </c>
@@ -2180,6 +2210,9 @@
       <c r="B41">
         <v>8</v>
       </c>
+      <c r="C41" s="13" t="s">
+        <v>153</v>
+      </c>
       <c r="E41" s="11">
         <v>1</v>
       </c>
@@ -2199,6 +2232,9 @@
     <row r="42" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B42" s="13">
         <v>9</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>153</v>
       </c>
       <c r="E42" s="14">
         <v>1</v>

--- a/scrum.xlsx
+++ b/scrum.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26915"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khanh/Documents/RobbieRobot/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewmcleod/Dropbox/code/CSE1325/Homework_6/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22460"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14820" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
-    <sheet name="Sprint NN Backlog" sheetId="2" r:id="rId2"/>
+    <sheet name="Sprint 1 Backlog" sheetId="3" r:id="rId2"/>
+    <sheet name="Sprint 2 Backlog" sheetId="4" r:id="rId3"/>
+    <sheet name="Sprint 3 Backlog" sheetId="5" r:id="rId4"/>
+    <sheet name="Sprint 4 Backlog" sheetId="2" r:id="rId5"/>
+    <sheet name="Sprint 5 Backlog" sheetId="7" r:id="rId6"/>
+    <sheet name="Sprint 6 Backlog" sheetId="8" r:id="rId7"/>
+    <sheet name="Sprint 7 Backlog" sheetId="9" r:id="rId8"/>
+    <sheet name="Sprint 8 Backlog" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="188">
   <si>
     <t>Product Name:</t>
   </si>
@@ -45,9 +52,6 @@
     <t>Student ID:</t>
   </si>
   <si>
-    <t>(Additional names for teams only)</t>
-  </si>
-  <si>
     <t>Total Features</t>
   </si>
   <si>
@@ -70,9 +74,6 @@
   </si>
   <si>
     <t>Sprint 4 Left</t>
-  </si>
-  <si>
-    <t>Due</t>
   </si>
   <si>
     <t>Sprint 5 Left</t>
@@ -476,12 +477,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Khanh Nguyen</t>
-  </si>
-  <si>
-    <t>KTN</t>
-  </si>
-  <si>
     <t>Matthew McLeod</t>
   </si>
   <si>
@@ -491,7 +486,121 @@
     <t>Done</t>
   </si>
   <si>
-    <t>Doing</t>
+    <t>09/31/2016  12:00:00 AM</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Open fltk window for shop</t>
+  </si>
+  <si>
+    <t>Using a façade pattern call MainViewController in main</t>
+  </si>
+  <si>
+    <t>Create menu bar to exit shop</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Make tabs for each shop role</t>
+  </si>
+  <si>
+    <t>Robbies Robot Shop</t>
+  </si>
+  <si>
+    <t>Open catalog on button click</t>
+  </si>
+  <si>
+    <t>Input robot and customer name with fltk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Parts button </t>
+  </si>
+  <si>
+    <t>Altering part and factory classes for use with fltk</t>
+  </si>
+  <si>
+    <t>Pm</t>
+  </si>
+  <si>
+    <t>Addition of colors and stylization</t>
+  </si>
+  <si>
+    <t>Development of Create Parts Window</t>
+  </si>
+  <si>
+    <t>Addition of tabs for each part in Create Parts Window</t>
+  </si>
+  <si>
+    <t>Adding name, cost, and SKU inputs for each part</t>
+  </si>
+  <si>
+    <t>Create callbacks for each part input in order to make parts</t>
+  </si>
+  <si>
+    <t>Allow for multiple battery slots for torso in GUI</t>
+  </si>
+  <si>
+    <t>Change button color on part creation</t>
+  </si>
+  <si>
+    <t>Link the factory objects between MainViewController and PartViewController</t>
+  </si>
+  <si>
+    <t>Create model window</t>
+  </si>
+  <si>
+    <t>Produce Multiline Outputs of each part</t>
+  </si>
+  <si>
+    <t>Update and show outputs on button click</t>
+  </si>
+  <si>
+    <t>Create input boxes for selection of part</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUI </t>
+  </si>
+  <si>
+    <t>Have boxes vanish on maximum inclusion of part</t>
+  </si>
+  <si>
+    <t>Produce model from static part objects</t>
+  </si>
+  <si>
+    <t>Review models in PM tab of main</t>
+  </si>
+  <si>
+    <t>Button to show models and update the box</t>
+  </si>
+  <si>
+    <t>Inputs for both name and model</t>
+  </si>
+  <si>
+    <t>Adjusting the distribution of objects on the screen</t>
+  </si>
+  <si>
+    <t>Manage multiple batteries in a model with GUI</t>
+  </si>
+  <si>
+    <t>Create Logo for the project</t>
+  </si>
+  <si>
+    <t>Debugging</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>Small stylistic changes, removing unnecessary files, preparing for delivery</t>
   </si>
 </sst>
 </file>
@@ -777,25 +886,25 @@
                   <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.0</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36.0</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.0</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35.0</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35.0</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35.0</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>35.0</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -811,11 +920,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2087932224"/>
-        <c:axId val="-2085430864"/>
+        <c:axId val="-2087985008"/>
+        <c:axId val="-2107203536"/>
       </c:lineChart>
       <c:valAx>
-        <c:axId val="-2085430864"/>
+        <c:axId val="-2107203536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -870,12 +979,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2087932224"/>
+        <c:crossAx val="-2087985008"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2087932224"/>
+        <c:axId val="-2087985008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -920,7 +1029,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2085430864"/>
+        <c:crossAx val="-2107203536"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -959,7 +1068,14 @@
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
-  <c:style val="2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -977,6 +1093,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1000,33 +1117,33 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint NN Backlog'!$B$6:$B$13</c:f>
+              <c:f>'Sprint 1 Backlog'!$B$6:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>23.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1042,11 +1159,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2087901168"/>
-        <c:axId val="-2087906608"/>
+        <c:axId val="-2098192896"/>
+        <c:axId val="-2088609104"/>
       </c:lineChart>
       <c:valAx>
-        <c:axId val="-2087906608"/>
+        <c:axId val="-2088609104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1077,6 +1194,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1100,12 +1218,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2087901168"/>
+        <c:crossAx val="-2098192896"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2087901168"/>
+        <c:axId val="-2098192896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1127,6 +1245,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
@@ -1149,7 +1268,1673 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2087906608"/>
+        <c:crossAx val="-2088609104"/>
+        <c:crossesAt val="0.0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="B3B3B3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="0"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sprint Burn Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 2 Backlog'!$B$6:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2083221536"/>
+        <c:axId val="-2083216560"/>
+      </c:lineChart>
+      <c:valAx>
+        <c:axId val="-2083216560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B3B3B3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Days</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2083221536"/>
+        <c:crossesAt val="0.0"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="-2083221536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tasks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2083216560"/>
+        <c:crossesAt val="0.0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="B3B3B3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="0"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sprint Burn Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 3 Backlog'!$B$6:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2086365184"/>
+        <c:axId val="-2086298624"/>
+      </c:lineChart>
+      <c:valAx>
+        <c:axId val="-2086298624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B3B3B3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Days</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2086365184"/>
+        <c:crossesAt val="0.0"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="-2086365184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tasks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2086298624"/>
+        <c:crossesAt val="0.0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="B3B3B3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="0"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sprint Burn Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 4 Backlog'!$B$6:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2098414224"/>
+        <c:axId val="-2134437872"/>
+      </c:lineChart>
+      <c:valAx>
+        <c:axId val="-2134437872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B3B3B3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Days</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2098414224"/>
+        <c:crossesAt val="0.0"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="-2098414224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tasks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2134437872"/>
+        <c:crossesAt val="0.0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="B3B3B3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="0"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sprint Burn Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 5 Backlog'!$B$6:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2084657968"/>
+        <c:axId val="-2084663408"/>
+      </c:lineChart>
+      <c:valAx>
+        <c:axId val="-2084663408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B3B3B3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Days</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2084657968"/>
+        <c:crossesAt val="0.0"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="-2084657968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tasks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2084663408"/>
+        <c:crossesAt val="0.0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="B3B3B3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="0"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sprint Burn Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 6 Backlog'!$B$6:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2084762048"/>
+        <c:axId val="-2084736448"/>
+      </c:lineChart>
+      <c:valAx>
+        <c:axId val="-2084736448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B3B3B3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Days</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2084762048"/>
+        <c:crossesAt val="0.0"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="-2084762048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tasks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2084736448"/>
+        <c:crossesAt val="0.0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="B3B3B3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="0"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sprint Burn Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 7 Backlog'!$B$6:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2076827152"/>
+        <c:axId val="-2076823392"/>
+      </c:lineChart>
+      <c:valAx>
+        <c:axId val="-2076823392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B3B3B3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Days</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2076827152"/>
+        <c:crossesAt val="0.0"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="-2076827152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tasks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2076823392"/>
+        <c:crossesAt val="0.0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="B3B3B3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="0"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sprint Burn Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 8 Backlog'!$B$6:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2074644080"/>
+        <c:axId val="-2074649520"/>
+      </c:lineChart>
+      <c:valAx>
+        <c:axId val="-2074649520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B3B3B3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Days</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2074644080"/>
+        <c:crossesAt val="0.0"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="-2074644080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tasks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2074649520"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1228,7 +3013,238 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="4086362" y="229697"/>
+    <xdr:ext cx="3751234" cy="1855043"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="shape">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8642ABB4-1175-45A9-98A9-708ACDE14362}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="4086362" y="229697"/>
+    <xdr:ext cx="3751234" cy="1855043"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="shape">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8642ABB4-1175-45A9-98A9-708ACDE14362}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="4086362" y="229697"/>
+    <xdr:ext cx="3751234" cy="1855043"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="shape">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8642ABB4-1175-45A9-98A9-708ACDE14362}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="4086362" y="229697"/>
+    <xdr:ext cx="3751234" cy="1855043"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="shape">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8642ABB4-1175-45A9-98A9-708ACDE14362}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="4086362" y="229697"/>
+    <xdr:ext cx="3751234" cy="1855043"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="shape">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8642ABB4-1175-45A9-98A9-708ACDE14362}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="4086362" y="229697"/>
+    <xdr:ext cx="3751234" cy="1855043"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="shape">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8642ABB4-1175-45A9-98A9-708ACDE14362}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="4086362" y="229697"/>
+    <xdr:ext cx="3751234" cy="1855043"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="shape">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8642ABB4-1175-45A9-98A9-708ACDE14362}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1544,8 +3560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1565,7 +3581,9 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="32" t="s">
+        <v>158</v>
+      </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
@@ -1577,7 +3595,9 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="32" t="s">
+        <v>146</v>
+      </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
@@ -1596,12 +3616,8 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>148</v>
-      </c>
+      <c r="A4"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="2"/>
@@ -1610,12 +3626,8 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>149</v>
-      </c>
+      <c r="A5"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="2"/>
@@ -1624,12 +3636,8 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="32">
-        <v>1001123673</v>
-      </c>
+      <c r="A6"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="2"/>
@@ -1648,9 +3656,7 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
+      <c r="A8"/>
       <c r="B8" s="32"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1664,7 +3670,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1678,7 +3684,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1805,17 +3811,17 @@
     </row>
     <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" s="5">
         <f>COUNT(B34:B149)</f>
         <v>36</v>
       </c>
       <c r="C21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="1"/>
@@ -1824,14 +3830,14 @@
     </row>
     <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22" s="1">
         <f t="shared" ref="B22:B29" si="0">B21</f>
         <v>36</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22" s="7">
         <v>42649</v>
@@ -1843,14 +3849,13 @@
     </row>
     <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23" s="1">
-        <f t="shared" si="0"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23" s="7">
         <f t="shared" ref="D23:D28" si="1">D22+7</f>
@@ -1863,14 +3868,13 @@
     </row>
     <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" s="1">
-        <f t="shared" si="0"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D24" s="7">
         <f t="shared" si="1"/>
@@ -1883,14 +3887,13 @@
     </row>
     <row r="25" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25" s="1">
-        <f t="shared" si="0"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D25" s="7">
         <f t="shared" si="1"/>
@@ -1903,13 +3906,13 @@
     </row>
     <row r="26" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B26" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D26" s="7">
         <f t="shared" si="1"/>
@@ -1922,14 +3925,14 @@
     </row>
     <row r="27" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B27" s="1">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D27" s="7">
         <f t="shared" si="1"/>
@@ -1942,14 +3945,13 @@
     </row>
     <row r="28" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B28" s="1">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D28" s="7">
         <f t="shared" si="1"/>
@@ -1962,14 +3964,13 @@
     </row>
     <row r="29" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B29" s="1">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D29" s="7">
         <v>42696</v>
@@ -1996,7 +3997,7 @@
       <c r="D31" s="1"/>
       <c r="E31" s="2"/>
       <c r="F31" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -2008,38 +4009,38 @@
       <c r="D32" s="1"/>
       <c r="E32" s="2"/>
       <c r="F32" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="E33" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="9" t="s">
+      <c r="F33" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="G33" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="H33" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="I33" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
@@ -2047,7 +4048,7 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D34">
         <v>5</v>
@@ -2056,16 +4057,16 @@
         <v>1</v>
       </c>
       <c r="F34" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G34" s="12" t="s">
+      <c r="I34" s="12" t="s">
         <v>30</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I34" s="12" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -2073,22 +4074,25 @@
         <v>2</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>153</v>
+        <v>148</v>
+      </c>
+      <c r="D35" s="13">
+        <v>6</v>
       </c>
       <c r="E35" s="14">
         <v>1</v>
       </c>
       <c r="F35" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G35" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H35" s="15" t="s">
-        <v>35</v>
-      </c>
       <c r="I35" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="28" x14ac:dyDescent="0.15">
@@ -2096,22 +4100,25 @@
         <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>153</v>
+        <v>148</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
       </c>
       <c r="E36" s="11">
         <v>1</v>
       </c>
       <c r="F36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H36" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G36" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H36" s="12" t="s">
+      <c r="I36" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="I36" s="12" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -2119,22 +4126,25 @@
         <v>4</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>153</v>
+        <v>148</v>
+      </c>
+      <c r="D37" s="13">
+        <v>8</v>
       </c>
       <c r="E37" s="14">
         <v>1</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G37" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I37" s="15" t="s">
         <v>38</v>
-      </c>
-      <c r="H37" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="I37" s="15" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
@@ -2142,22 +4152,25 @@
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>153</v>
+        <v>148</v>
+      </c>
+      <c r="D38">
+        <v>8</v>
       </c>
       <c r="E38" s="11">
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -2165,22 +4178,22 @@
         <v>6</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E39" s="14">
         <v>1</v>
       </c>
       <c r="F39" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H39" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G39" s="15" t="s">
+      <c r="I39" s="15" t="s">
         <v>44</v>
-      </c>
-      <c r="H39" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="I39" s="15" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="28" x14ac:dyDescent="0.15">
@@ -2188,68 +4201,63 @@
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E40" s="11">
         <v>1</v>
       </c>
       <c r="F40" t="s">
+        <v>41</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G40" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>45</v>
-      </c>
       <c r="I40" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41">
         <v>8</v>
       </c>
-      <c r="C41" s="13" t="s">
-        <v>153</v>
-      </c>
+      <c r="C41" s="13"/>
       <c r="E41" s="11">
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G41" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I41" s="12" t="s">
         <v>49</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="I41" s="12" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B42" s="13">
         <v>9</v>
       </c>
-      <c r="C42" s="13" t="s">
-        <v>153</v>
-      </c>
       <c r="E42" s="14">
         <v>1</v>
       </c>
       <c r="F42" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H42" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="G42" s="15" t="s">
+      <c r="I42" s="15" t="s">
         <v>53</v>
-      </c>
-      <c r="H42" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="I42" s="15" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
@@ -2260,16 +4268,16 @@
         <v>1</v>
       </c>
       <c r="F43" t="s">
+        <v>54</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H43" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G43" s="12" t="s">
+      <c r="I43" s="12" t="s">
         <v>57</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="I43" s="12" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
@@ -2280,16 +4288,16 @@
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G44" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I44" s="12" t="s">
         <v>60</v>
-      </c>
-      <c r="H44" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="I44" s="12" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
@@ -2300,13 +4308,13 @@
         <v>1</v>
       </c>
       <c r="F45" t="s">
+        <v>50</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H45" s="12" t="s">
         <v>52</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="H45" s="12" t="s">
-        <v>54</v>
       </c>
       <c r="I45" s="12"/>
     </row>
@@ -2318,16 +4326,16 @@
         <v>2</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G46" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="I46" s="15" t="s">
         <v>64</v>
-      </c>
-      <c r="H46" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="I46" s="15" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.15">
@@ -2338,16 +4346,16 @@
         <v>2</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G47" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="H47" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="I47" s="18" t="s">
         <v>67</v>
-      </c>
-      <c r="H47" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="I47" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.15">
@@ -2358,16 +4366,16 @@
         <v>2</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G48" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H48" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="I48" s="18" t="s">
         <v>70</v>
-      </c>
-      <c r="H48" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="I48" s="18" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="49" spans="2:9" s="16" customFormat="1" ht="28" x14ac:dyDescent="0.15">
@@ -2378,16 +4386,16 @@
         <v>2</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G49" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H49" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I49" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="2:9" s="19" customFormat="1" ht="28" x14ac:dyDescent="0.15">
@@ -2398,16 +4406,16 @@
         <v>2</v>
       </c>
       <c r="F50" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G50" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H50" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="G50" s="22" t="s">
+      <c r="I50" s="22" t="s">
         <v>76</v>
-      </c>
-      <c r="H50" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="I50" s="22" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="51" spans="2:9" s="19" customFormat="1" ht="28" x14ac:dyDescent="0.15">
@@ -2418,16 +4426,16 @@
         <v>2</v>
       </c>
       <c r="F51" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G51" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H51" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="G51" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="H51" s="24" t="s">
-        <v>77</v>
-      </c>
       <c r="I51" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="2:9" s="25" customFormat="1" ht="28" x14ac:dyDescent="0.15">
@@ -2438,16 +4446,16 @@
         <v>3</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G52" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="H52" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="I52" s="27" t="s">
         <v>81</v>
-      </c>
-      <c r="H52" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="I52" s="27" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="53" spans="2:9" s="25" customFormat="1" ht="28" x14ac:dyDescent="0.15">
@@ -2458,16 +4466,16 @@
         <v>3</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G53" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="H53" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="I53" s="27" t="s">
         <v>84</v>
-      </c>
-      <c r="H53" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="I53" s="27" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.15">
@@ -2484,16 +4492,16 @@
         <v>3</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G56" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H56" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I56" s="15" t="s">
         <v>87</v>
-      </c>
-      <c r="H56" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="I56" s="15" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="57" spans="2:9" s="25" customFormat="1" ht="28" x14ac:dyDescent="0.15">
@@ -2504,16 +4512,16 @@
         <v>3</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G57" s="27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H57" s="27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I57" s="27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="2:9" s="25" customFormat="1" x14ac:dyDescent="0.15">
@@ -2524,16 +4532,16 @@
         <v>3</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G58" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="H58" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="I58" s="15" t="s">
         <v>92</v>
-      </c>
-      <c r="H58" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="I58" s="15" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="59" spans="2:9" s="25" customFormat="1" ht="28" x14ac:dyDescent="0.15">
@@ -2544,16 +4552,16 @@
         <v>3</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G59" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H59" s="27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I59" s="27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="2:9" s="28" customFormat="1" x14ac:dyDescent="0.15">
@@ -2564,16 +4572,16 @@
         <v>4</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G60" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H60" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I60" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="2:9" s="28" customFormat="1" x14ac:dyDescent="0.15">
@@ -2584,16 +4592,16 @@
         <v>4</v>
       </c>
       <c r="F61" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G61" s="30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H61" s="30" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I61" s="30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="2:9" s="28" customFormat="1" x14ac:dyDescent="0.15">
@@ -2604,16 +4612,16 @@
         <v>4</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G62" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H62" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="I62" s="15" t="s">
         <v>100</v>
-      </c>
-      <c r="H62" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="I62" s="15" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="63" spans="2:9" s="28" customFormat="1" x14ac:dyDescent="0.15">
@@ -2624,16 +4632,16 @@
         <v>4</v>
       </c>
       <c r="F63" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G63" s="30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H63" s="30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I63" s="30" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="2:9" s="28" customFormat="1" x14ac:dyDescent="0.15">
@@ -2644,16 +4652,16 @@
         <v>4</v>
       </c>
       <c r="F64" s="28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G64" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="H64" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="I64" s="30" t="s">
         <v>105</v>
-      </c>
-      <c r="H64" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="I64" s="30" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="65" spans="2:9" s="28" customFormat="1" x14ac:dyDescent="0.15">
@@ -2664,16 +4672,16 @@
         <v>4</v>
       </c>
       <c r="F65" s="28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G65" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="H65" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="I65" s="30" t="s">
         <v>108</v>
-      </c>
-      <c r="H65" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="I65" s="30" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.15">
@@ -2681,19 +4689,19 @@
         <v>31</v>
       </c>
       <c r="E66" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F66" t="s">
+        <v>50</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="H66" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="F66" t="s">
-        <v>52</v>
-      </c>
-      <c r="G66" s="12" t="s">
+      <c r="I66" s="12" t="s">
         <v>112</v>
-      </c>
-      <c r="H66" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="I66" s="12" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.15">
@@ -2701,19 +4709,19 @@
         <v>32</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F67" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G67" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="H67" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="I67" s="12" t="s">
         <v>115</v>
-      </c>
-      <c r="H67" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="I67" s="12" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.15">
@@ -2721,19 +4729,19 @@
         <v>33</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F68" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G68" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H68" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="I68" s="12" t="s">
         <v>118</v>
-      </c>
-      <c r="H68" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="I68" s="12" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.15">
@@ -2741,19 +4749,19 @@
         <v>34</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F69" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G69" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="H69" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="I69" s="12" t="s">
         <v>121</v>
-      </c>
-      <c r="H69" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="I69" s="12" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.15">
@@ -2761,19 +4769,19 @@
         <v>35</v>
       </c>
       <c r="E70" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F70" t="s">
+        <v>41</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H70" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="F70" t="s">
-        <v>43</v>
-      </c>
-      <c r="G70" s="12" t="s">
+      <c r="I70" s="12" t="s">
         <v>125</v>
-      </c>
-      <c r="H70" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="I70" s="12" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="71" spans="2:9" ht="28" x14ac:dyDescent="0.15">
@@ -2781,19 +4789,19 @@
         <v>36</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F71" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G71" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="H71" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="I71" s="12" t="s">
         <v>128</v>
-      </c>
-      <c r="H71" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="I71" s="12" t="s">
-        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2808,14 +4816,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="2" max="4" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="4" width="10.6640625" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" customWidth="1"/>
     <col min="6" max="6" width="48" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" customWidth="1"/>
@@ -2825,23 +4836,27 @@
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B2" s="31"/>
+        <v>130</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>149</v>
+      </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -2851,9 +4866,11 @@
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B3" s="31"/>
+        <v>131</v>
+      </c>
+      <c r="B3" s="31">
+        <v>42649</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -2863,7 +4880,7 @@
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B4" s="31"/>
       <c r="C4" s="1"/>
@@ -2885,10 +4902,10 @@
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B6" s="1">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -2899,11 +4916,11 @@
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B7" s="1">
-        <f t="shared" ref="B7:B13" si="0">B6</f>
-        <v>23</v>
+        <f t="shared" ref="B7:B8" si="0">B6</f>
+        <v>4</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -2914,11 +4931,11 @@
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2929,11 +4946,10 @@
     </row>
     <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B9" s="1">
-        <f t="shared" si="0"/>
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -2944,11 +4960,10 @@
     </row>
     <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B10" s="1">
-        <f t="shared" si="0"/>
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2959,11 +4974,10 @@
     </row>
     <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B11" s="1">
-        <f t="shared" si="0"/>
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2974,11 +4988,10 @@
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B12" s="1">
-        <f t="shared" si="0"/>
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2989,11 +5002,10 @@
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B13" s="1">
-        <f t="shared" si="0"/>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -3014,29 +5026,2430 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>143</v>
       </c>
+      <c r="E15" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" t="s">
+        <v>156</v>
+      </c>
+      <c r="E16" t="s">
+        <v>147</v>
+      </c>
+      <c r="F16" t="s">
+        <v>154</v>
+      </c>
+      <c r="G16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" t="s">
+        <v>156</v>
+      </c>
+      <c r="E17" t="s">
+        <v>147</v>
+      </c>
+      <c r="F17" t="s">
+        <v>153</v>
+      </c>
+      <c r="G17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E18" t="s">
+        <v>147</v>
+      </c>
+      <c r="F18" t="s">
+        <v>155</v>
+      </c>
+      <c r="G18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" t="s">
+        <v>156</v>
+      </c>
+      <c r="E19" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0" right="0" top="0.39370000000000011" bottom="0.39370000000000011" header="0" footer="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="48" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="48" customWidth="1"/>
+    <col min="9" max="1024" width="10.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="31">
+        <v>42649</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="31">
+        <v>42656</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" ref="B7" si="0">B6</f>
+        <v>4</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="9" t="s">
+        <v>141</v>
+      </c>
       <c r="B15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" t="s">
+        <v>151</v>
+      </c>
+      <c r="E16" t="s">
+        <v>147</v>
+      </c>
+      <c r="F16" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E17" t="s">
+        <v>147</v>
+      </c>
+      <c r="F17" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>147</v>
+      </c>
+      <c r="F18" t="s">
+        <v>161</v>
+      </c>
+      <c r="G18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" t="s">
+        <v>163</v>
+      </c>
+      <c r="E19" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0" right="0" top="0.39370000000000011" bottom="0.39370000000000011" header="0" footer="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="48" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="48" customWidth="1"/>
+    <col min="9" max="1024" width="10.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="31">
+        <v>42656</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="31">
+        <v>42663</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" ref="B7" si="0">B6</f>
+        <v>4</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="C15" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>144</v>
       </c>
+      <c r="F15" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" t="s">
+        <v>151</v>
+      </c>
+      <c r="E16" t="s">
+        <v>147</v>
+      </c>
+      <c r="F16" t="s">
+        <v>164</v>
+      </c>
+      <c r="G16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>147</v>
+      </c>
+      <c r="F17" t="s">
+        <v>165</v>
+      </c>
+      <c r="G17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>147</v>
+      </c>
+      <c r="F18" t="s">
+        <v>166</v>
+      </c>
+      <c r="G18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" t="s">
+        <v>167</v>
+      </c>
+      <c r="G19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0" right="0" top="0.39370000000000011" bottom="0.39370000000000011" header="0" footer="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="61.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="48" customWidth="1"/>
+    <col min="9" max="1024" width="10.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="31">
+        <v>42663</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="31">
+        <v>42670</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" ref="B7:B13" si="0">B6</f>
+        <v>4</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>142</v>
+      </c>
       <c r="D15" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>145</v>
       </c>
+      <c r="G15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
+        <v>147</v>
+      </c>
+      <c r="F16" t="s">
+        <v>168</v>
+      </c>
+      <c r="G16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>147</v>
+      </c>
+      <c r="F17" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>147</v>
+      </c>
+      <c r="F18" t="s">
+        <v>170</v>
+      </c>
+      <c r="G18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" t="s">
+        <v>171</v>
+      </c>
+      <c r="G19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0" right="0" top="0.39370000000000011" bottom="0.39370000000000011" header="0" footer="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="61.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="48" customWidth="1"/>
+    <col min="9" max="1024" width="10.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="31">
+        <v>42670</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="31">
+        <v>42677</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>143</v>
+      </c>
       <c r="E15" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F15" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
         <v>147</v>
       </c>
+      <c r="F16" t="s">
+        <v>172</v>
+      </c>
+      <c r="G16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>147</v>
+      </c>
+      <c r="F17" t="s">
+        <v>173</v>
+      </c>
+      <c r="G17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>147</v>
+      </c>
+      <c r="F18" t="s">
+        <v>174</v>
+      </c>
+      <c r="G18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" t="s">
+        <v>175</v>
+      </c>
+      <c r="G19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>176</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" t="s">
+        <v>147</v>
+      </c>
+      <c r="F20" t="s">
+        <v>177</v>
+      </c>
+      <c r="G20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0" right="0" top="0.39370000000000011" bottom="0.39370000000000011" header="0" footer="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="61.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="48" customWidth="1"/>
+    <col min="9" max="1024" width="10.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="31">
+        <v>42677</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="31">
+        <v>42684</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>145</v>
+      </c>
       <c r="G15" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>28</v>
-      </c>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
+        <v>147</v>
+      </c>
+      <c r="F16" t="s">
+        <v>178</v>
+      </c>
+      <c r="G16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>147</v>
+      </c>
+      <c r="F17" t="s">
+        <v>179</v>
+      </c>
+      <c r="G17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>147</v>
+      </c>
+      <c r="F18" t="s">
+        <v>180</v>
+      </c>
+      <c r="G18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" t="s">
+        <v>181</v>
+      </c>
+      <c r="G19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0" right="0" top="0.39370000000000011" bottom="0.39370000000000011" header="0" footer="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="61.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="48" customWidth="1"/>
+    <col min="9" max="1024" width="10.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="31">
+        <v>42684</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="31">
+        <v>42691</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" t="s">
+        <v>156</v>
+      </c>
+      <c r="E16" t="s">
+        <v>147</v>
+      </c>
+      <c r="F16" t="s">
+        <v>182</v>
+      </c>
+      <c r="G16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>147</v>
+      </c>
+      <c r="F17" t="s">
+        <v>183</v>
+      </c>
+      <c r="G17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E18" t="s">
+        <v>147</v>
+      </c>
+      <c r="F18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" t="s">
+        <v>156</v>
+      </c>
+      <c r="E19" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" t="s">
+        <v>185</v>
+      </c>
+      <c r="G19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0" right="0" top="0.39370000000000011" bottom="0.39370000000000011" header="0" footer="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="61.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="48" customWidth="1"/>
+    <col min="9" max="1024" width="10.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="31">
+        <v>42691</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="31">
+        <v>42696</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" t="s">
+        <v>156</v>
+      </c>
+      <c r="E16" t="s">
+        <v>147</v>
+      </c>
+      <c r="F16" t="s">
+        <v>187</v>
+      </c>
+      <c r="G16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370000000000011" bottom="0.39370000000000011" header="0" footer="0"/>
